--- a/Best_of_Pedigree_issue_tracker.xlsx
+++ b/Best_of_Pedigree_issue_tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -106,6 +106,29 @@
   </si>
   <si>
     <t>Resolved</t>
+  </si>
+  <si>
+    <t>Visit Training Centre link added for Employee</t>
+  </si>
+  <si>
+    <t>Work In Progress</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Porogress in terms of clicks added and shown in posted jobs and applied jobs. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question: Time limit is in hours or days?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -129,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -216,6 +245,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -673,8 +705,8 @@
       <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
+      <c r="D10" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -688,10 +720,12 @@
       <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="D11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="75">
       <c r="A12" s="8" t="s">
@@ -703,10 +737,12 @@
       <c r="C12" s="9">
         <v>6</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="10"/>
+      <c r="D12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="45">
       <c r="A13" s="8" t="s">
